--- a/Reports/ExcelOutput.xlsx
+++ b/Reports/ExcelOutput.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3208" uniqueCount="38">
   <si>
     <t>Honda CRF300L</t>
   </si>
@@ -132,6 +132,24 @@
   </si>
   <si>
     <t>Error Message</t>
+  </si>
+  <si>
+    <t>Expected Launch Date : 30 Mar 2024</t>
+  </si>
+  <si>
+    <t>Expected Launch : Mar 2024</t>
+  </si>
+  <si>
+    <t>Expected Launch : Jun 2024</t>
+  </si>
+  <si>
+    <t>Expected Launch : Unrevealed</t>
+  </si>
+  <si>
+    <t>Expected Launch : Nov 2024</t>
+  </si>
+  <si>
+    <t>Launch Date : Nov 2024</t>
   </si>
 </sst>
 </file>
@@ -524,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>17</v>
@@ -535,13 +553,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>18</v>
@@ -549,13 +567,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>19</v>
@@ -563,13 +581,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>20</v>
@@ -577,13 +595,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>21</v>
@@ -597,7 +615,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>22</v>
@@ -611,7 +629,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>23</v>
